--- a/data/trans_media/Q23_1_2015-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q23_1_2015-Estudios-trans_media.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 16,63</t>
+          <t>15,73; 16,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,23; 15,94</t>
+          <t>15,21; 15,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 20,01</t>
+          <t>17,79; 19,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,13; 18,45</t>
+          <t>17,19; 18,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,43; 17,28</t>
+          <t>16,46; 17,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 16,48</t>
+          <t>15,86; 16,5</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,75</t>
+          <t>16,31; 16,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 16,94</t>
+          <t>16,48; 16,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 17,86</t>
+          <t>17,29; 17,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,48</t>
+          <t>16,97; 17,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,16</t>
+          <t>16,79; 17,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,09</t>
+          <t>16,75; 17,1</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,64</t>
+          <t>16,71; 17,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,47; 18,48</t>
+          <t>17,46; 18,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,73</t>
+          <t>16,85; 17,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 18,49</t>
+          <t>17,56; 18,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,49</t>
+          <t>16,91; 17,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 18,31</t>
+          <t>17,63; 18,28</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 16,67</t>
+          <t>16,34; 16,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 16,84</t>
+          <t>16,47; 16,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 17,94</t>
+          <t>17,43; 17,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 17,67</t>
+          <t>17,24; 17,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,12</t>
+          <t>16,83; 17,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,12</t>
+          <t>16,84; 17,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23_1_2015-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q23_1_2015-Estudios-trans_media.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 16,6</t>
+          <t>15,7; 16,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,79; 19,96</t>
+          <t>17,78; 20,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,35</t>
+          <t>16,44; 17,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,73</t>
+          <t>16,32; 16,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 17,89</t>
+          <t>17,3; 17,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,15</t>
+          <t>16,81; 17,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,64</t>
+          <t>16,69; 17,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,71</t>
+          <t>16,87; 17,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,91; 17,54</t>
+          <t>16,91; 17,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 16,68</t>
+          <t>16,33; 16,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,43; 17,95</t>
+          <t>17,43; 17,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,83; 17,15</t>
+          <t>16,83; 17,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
